--- a/0_helper_functions/helper_function_test/data/labeled_norm_7.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_7.xlsx
@@ -579,31 +579,31 @@
         <v>0.067</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5952615943361256</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8562450405521884</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9867101383085646</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9355889291776341</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.4014601767680209</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -615,25 +615,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.05402065642127507</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.3037849158092606</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3991034189142764</v>
+        <v>0.22061096548505</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.09111582069031869</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1428122520276094</v>
+        <v>0.002701032821063754</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>

--- a/0_helper_functions/helper_function_test/data/labeled_norm_7.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_7.xlsx
@@ -579,67 +579,67 @@
         <v>0.067</v>
       </c>
       <c r="E2" t="n">
+        <v>0.5057824530288295</v>
+      </c>
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.05312104469741659</v>
+      </c>
+      <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.1908421763715921</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.8127284989397658</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4014601767680209</v>
+        <v>0.8997314995566137</v>
       </c>
       <c r="N2" t="n">
+        <v>0.8900510213150578</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.8682482584555916</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.04341319553706321</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.05402065642127507</v>
-      </c>
       <c r="R2" t="n">
-        <v>0.3037849158092606</v>
+        <v>0.05065109166527582</v>
       </c>
       <c r="S2" t="n">
-        <v>0.22061096548505</v>
+        <v>0.3201570683773938</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09111582069031869</v>
+        <v>0.07861323320176108</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.002701032821063754</v>
+        <v>0.254091793688748</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>

--- a/0_helper_functions/helper_function_test/data/labeled_norm_7.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_7.xlsx
@@ -579,67 +579,67 @@
         <v>0.067</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5057824530288295</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
+        <v>0.1465349444394075</v>
+      </c>
+      <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.05312104469741659</v>
-      </c>
       <c r="H2" t="n">
+        <v>0.9316063040277319</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.3079250363058693</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.173524375516493</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.4023864942688539</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.09936513610471387</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1041747215440326</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.2862411221720659</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.1908421763715921</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.8127284989397658</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.8997314995566137</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.8900510213150578</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.8682482584555916</v>
-      </c>
       <c r="P2" t="n">
-        <v>0.04341319553706321</v>
+        <v>0.2799027098206055</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05065109166527582</v>
+        <v>0.6445938377708179</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3201570683773938</v>
+        <v>0.2568827039690025</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.07861323320176108</v>
+        <v>0.3848550819856104</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.254091793688748</v>
+        <v>0.1907101838206804</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>

--- a/0_helper_functions/helper_function_test/data/labeled_norm_7.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,125 +441,110 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Drug_MW</t>
+          <t>Drug</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Drug_LogP</t>
+          <t>SL_1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Drug_TPSA</t>
+          <t>SL_2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>SL_3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SL_1</t>
+          <t>LL_1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>SL_2</t>
+          <t>LL_2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>SL_3</t>
+          <t>LL_3</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LL_1</t>
+          <t>P_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>LL_2</t>
+          <t>P_2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>LL_3</t>
+          <t>P_3</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>P_1</t>
+          <t>S_1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>P_2</t>
+          <t>S_2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>P_3</t>
+          <t>S_3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>S_1</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>S_2</t>
+          <t>Solu</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>S_3</t>
+          <t>Solu_STD</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Solu</t>
+          <t>Size_STD</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Solu_STD</t>
+          <t>PDI</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Size</t>
+          <t>PDI_STD</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Size_STD</t>
+          <t>Complexity</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>PDI</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>PDI_STD</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Complexity</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Complexity_STD</t>
         </is>
@@ -570,40 +555,40 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.354</v>
+        <v>68</v>
       </c>
       <c r="C2" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5952615943361256</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8562450405521884</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9867101383085646</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9355889291776341</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -612,36 +597,27 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3991034189142764</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1428122520276094</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z2" t="n">
         <v>0</v>
       </c>
     </row>
